--- a/Population genomics/2.Dcarthusian/8.Environm_associations_TCF1/Env_Variables_Dsyl_Dcar_All.xlsx
+++ b/Population genomics/2.Dcarthusian/8.Environm_associations_TCF1/Env_Variables_Dsyl_Dcar_All.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fior/Documents/RESEARCH/4-DIANTHUS/28_Environmental_Association/3_PCA_variables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fior/Documents/RESEARCH/4-DIANTHUS/50_MS/8_Datasets_to_submit/2_Github/PopGenomics/1.Dsylvestris/8.Environm_associations_TCF1/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9C4FDD-B826-2C46-89A2-1A39A2B27300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="2400" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="42680" yWindow="-5960" windowWidth="28920" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dianthus_Env_Variables_Dsyl_all" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>Population</t>
   </si>
@@ -155,54 +156,21 @@
     <t>Unterstalden</t>
   </si>
   <si>
-    <t>clou: monthly mean cloudines in % (1961-1990): 1/10 %</t>
-  </si>
-  <si>
     <t>cndx: monthly continentality indices: unitless</t>
   </si>
   <si>
     <t>ddeg: annual degreedays with various threshold limits: day*deg*10</t>
   </si>
   <si>
-    <t>etpt: monthly potential evapotranspiration measures (Turc formulas): 1/10mm / day</t>
-  </si>
-  <si>
     <t>pday: # of precipitation days per growing season (June-August): nday</t>
   </si>
   <si>
-    <t>prec: monthly mean precipitation sum (1961-1990): 1/10mm / mth</t>
-  </si>
-  <si>
-    <t>sdif: monthly potential diffuse shortwave radiation: kJ / day (monthly avg.)</t>
-  </si>
-  <si>
-    <t>sdir: monthly potential direct shortwave radiation: kJ / day (monthly avg.)</t>
-  </si>
-  <si>
-    <t>sfro: annual average # of frost days during growing season: nday (see Bolliger et al., RegEnvChange, 1999)</t>
-  </si>
-  <si>
     <t>srad: monthly global potential shortwave radiation (sdir + sdif): kJ / day (monthly avg.)</t>
   </si>
   <si>
     <t>swb:  annual average site water balance: 1/10mm / yr.</t>
   </si>
   <si>
-    <t>tave: monthly mean of average temperature (1961-1990): 1/100 deg.C</t>
-  </si>
-  <si>
-    <t>tmax: monthly mean of maximum temperature (1961-1990): 1/100 deg.C</t>
-  </si>
-  <si>
-    <t>tmin: monthly mean of minimum temperature (1961-1990): 1/100 deg.C</t>
-  </si>
-  <si>
-    <t>topo: topographic position and other topography related variables: mostly unitless</t>
-  </si>
-  <si>
-    <t>mind: monthly moisture index:  P - ETP: 1/10mm / mth</t>
-  </si>
-  <si>
     <t>mbal: monthly moisture balance: P/ETP - 1.0: index (daily avg. / mth)</t>
   </si>
   <si>
@@ -224,13 +192,34 @@
     <t>exposi: direction that a slope faces: deg. from 0 (due north) to 360</t>
   </si>
   <si>
-    <t>Variable legend</t>
+    <t>etp: monthly potential evapotranspiration measures (Turc formulas): 1/10mm / day</t>
+  </si>
+  <si>
+    <t>Variable legend (period 1961-1990)</t>
+  </si>
+  <si>
+    <t>clou: monthly mean cloudines in %: 1/10 %</t>
+  </si>
+  <si>
+    <t>prec: monthly mean precipitation sum: 1/10mm / mth</t>
+  </si>
+  <si>
+    <t>tave: monthly mean of average temperature: 1/100 deg.C</t>
+  </si>
+  <si>
+    <t>tmax: monthly mean of maximum temperature: 1/100 deg.C</t>
+  </si>
+  <si>
+    <t>tmin: monthly mean of minimum temperature: 1/100 deg.C</t>
+  </si>
+  <si>
+    <t>sfroyy: annual average # of frost days during growing season: nday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -290,6 +279,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -557,11 +549,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1622,122 +1614,102 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
